--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-458150.1573859565</v>
+        <v>-462289.8637999129</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12191702.24668045</v>
+        <v>12188752.34972835</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>191.2631249874453</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>55.56543411425665</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>26.96566453631173</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.5573060520096</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.9005421603009</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>257.6052246020162</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>101.690485637552</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>66.20855917483283</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -984,7 +984,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.643537207228</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>125.4237525428689</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>92.42138284335824</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>167.6606538496242</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>334.795945947054</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1145,10 +1145,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>293.2334219108267</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>26.24962422171318</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>86.80189607361297</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>208.1698562701778</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>166.5430216364782</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>92.36664214762543</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.464138334204392</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>88.34088543059811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>76.88409504921108</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>26.285247811099</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.83764629858935</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,13 +1904,13 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730201</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838875</v>
+        <v>24.17382596575005</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828888</v>
+        <v>52.06849973565018</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043172</v>
+        <v>70.5760187316785</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459961</v>
+        <v>55.72314698196091</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643934</v>
+        <v>41.29686219380064</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931845</v>
+        <v>41.22330424667975</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908571</v>
+        <v>42.97275566644701</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147785</v>
+        <v>53.79159358883915</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804989</v>
+        <v>41.14384575541119</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922182</v>
+        <v>18.98356133658312</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367774</v>
+        <v>9.88205970103904</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920506</v>
+        <v>88.00800320656636</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,16 +3512,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541621</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1738.556545601274</v>
+        <v>799.052229350383</v>
       </c>
       <c r="C2" t="n">
-        <v>1738.556545601274</v>
+        <v>799.052229350383</v>
       </c>
       <c r="D2" t="n">
-        <v>1738.556545601274</v>
+        <v>799.052229350383</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477962</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357994</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793341</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="L2" t="n">
-        <v>668.6733001978629</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207955</v>
+        <v>588.4870060424374</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845417</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737746</v>
+        <v>1542.129285544455</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023267</v>
+        <v>1908.648782757976</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023267</v>
+        <v>1908.648782757976</v>
       </c>
       <c r="U2" t="n">
-        <v>2080.663354897756</v>
+        <v>1908.648782757976</v>
       </c>
       <c r="V2" t="n">
-        <v>1738.556545601274</v>
+        <v>1566.541973461494</v>
       </c>
       <c r="W2" t="n">
-        <v>1738.556545601274</v>
+        <v>1195.542938429782</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.556545601274</v>
+        <v>1195.542938429782</v>
       </c>
       <c r="Y2" t="n">
-        <v>1738.556545601274</v>
+        <v>799.052229350383</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>380.3342222643575</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>863.9003081626707</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1402.159093172763</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="N3" t="n">
-        <v>1940.417878182855</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182855</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="T3" t="n">
-        <v>2015.935249535679</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1805.872106214321</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1583.332104585388</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1353.214858718675</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1163.907781068686</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.8838489790194</v>
+        <v>399.4125696512744</v>
       </c>
       <c r="C4" t="n">
-        <v>299.8838489790194</v>
+        <v>229.2074517172636</v>
       </c>
       <c r="D4" t="n">
-        <v>299.8838489790194</v>
+        <v>229.2074517172636</v>
       </c>
       <c r="E4" t="n">
-        <v>299.8838489790194</v>
+        <v>229.2074517172636</v>
       </c>
       <c r="F4" t="n">
-        <v>299.8838489790194</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="G4" t="n">
-        <v>299.8838489790194</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4052979405134</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475491</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>585.3226407371185</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>299.8838489790194</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>299.8838489790194</v>
+        <v>682.7429717200968</v>
       </c>
       <c r="W4" t="n">
-        <v>299.8838489790194</v>
+        <v>399.4125696512744</v>
       </c>
       <c r="X4" t="n">
-        <v>299.8838489790194</v>
+        <v>399.4125696512744</v>
       </c>
       <c r="Y4" t="n">
-        <v>299.8838489790194</v>
+        <v>399.4125696512744</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1350.846741876925</v>
+        <v>927.5728706948541</v>
       </c>
       <c r="C5" t="n">
-        <v>957.6712403798558</v>
+        <v>534.3973691977847</v>
       </c>
       <c r="D5" t="n">
-        <v>572.2301115965236</v>
+        <v>534.3973691977847</v>
       </c>
       <c r="E5" t="n">
-        <v>469.51244933637</v>
+        <v>534.3973691977847</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>117.5029307277624</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475491</v>
+        <v>108.3805792561697</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475491</v>
+        <v>108.3805792561697</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>188.145432303583</v>
+        <v>423.0718195642703</v>
       </c>
       <c r="L5" t="n">
-        <v>575.6798488177211</v>
+        <v>423.0718195642703</v>
       </c>
       <c r="M5" t="n">
-        <v>1113.938633827813</v>
+        <v>936.6744981739593</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465275</v>
+        <v>1450.277176783648</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465275</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596797</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023267</v>
+        <v>1695.062614805965</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.790056023267</v>
+        <v>1324.063579774253</v>
       </c>
       <c r="X5" t="n">
-        <v>1747.337450956324</v>
+        <v>1324.063579774253</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.846741876925</v>
+        <v>927.5728706948541</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718.4298364179177</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>567.7756059780099</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>437.6866385994902</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>301.2401477103779</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767087</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653844</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875476</v>
+        <v>921.5731989359482</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535679</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734587</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413229</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784296</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917583</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1049.540387783372</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>870.2261708588791</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356.300145220288</v>
+        <v>423.431155322775</v>
       </c>
       <c r="C7" t="n">
-        <v>356.300145220288</v>
+        <v>423.431155322775</v>
       </c>
       <c r="D7" t="n">
-        <v>356.300145220288</v>
+        <v>423.431155322775</v>
       </c>
       <c r="E7" t="n">
-        <v>356.300145220288</v>
+        <v>423.431155322775</v>
       </c>
       <c r="F7" t="n">
-        <v>198.9742104332609</v>
+        <v>423.431155322775</v>
       </c>
       <c r="G7" t="n">
-        <v>198.9742104332609</v>
+        <v>330.0762231577667</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475491</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W7" t="n">
-        <v>775.5884861286062</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="X7" t="n">
-        <v>541.5081639115892</v>
+        <v>423.431155322775</v>
       </c>
       <c r="Y7" t="n">
-        <v>541.5081639115892</v>
+        <v>423.431155322775</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1556.161810619593</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="C8" t="n">
-        <v>1162.986309122523</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D8" t="n">
-        <v>1162.986309122523</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>760.4027842390676</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>343.5083457690454</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4811,13 +4811,13 @@
         <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4841,13 +4841,13 @@
         <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.65655633099</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1956.65655633099</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1956.65655633099</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1549.231189288413</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.5180880355544</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>922.2452207019717</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>922.2452207019717</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>636.8064289438726</v>
+        <v>861.0813097404567</v>
       </c>
       <c r="V10" t="n">
-        <v>636.8064289438726</v>
+        <v>595.101964561281</v>
       </c>
       <c r="W10" t="n">
-        <v>636.8064289438726</v>
+        <v>311.7715624924585</v>
       </c>
       <c r="X10" t="n">
-        <v>402.7261067268557</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>402.7261067268557</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1557.030656569137</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C11" t="n">
-        <v>1235.651430218262</v>
+        <v>1645.302650055463</v>
       </c>
       <c r="D11" t="n">
-        <v>922.0065765811231</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>591.2193268438615</v>
+        <v>1000.870546681063</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527724</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2827.282650873813</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="W11" t="n">
-        <v>2528.079890988294</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="X11" t="n">
-        <v>2210.423561067545</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1885.72912713434</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>431.1145568530007</v>
+        <v>155.4187662370705</v>
       </c>
       <c r="C13" t="n">
-        <v>332.7057140651835</v>
+        <v>155.4187662370705</v>
       </c>
       <c r="D13" t="n">
-        <v>248.8688761138924</v>
+        <v>155.4187662370705</v>
       </c>
       <c r="E13" t="n">
-        <v>165.1063391192887</v>
+        <v>155.4187662370705</v>
       </c>
       <c r="F13" t="n">
-        <v>165.1063391192887</v>
+        <v>155.4187662370705</v>
       </c>
       <c r="G13" t="n">
-        <v>68.64856036492804</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>68.64856036492804</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5230,19 +5230,19 @@
         <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457737</v>
+        <v>988.147539845774</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127919</v>
+        <v>793.9644698127921</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901635</v>
+        <v>582.4303428901637</v>
       </c>
       <c r="X13" t="n">
-        <v>582.4303428901635</v>
+        <v>420.1462958193407</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.1145568530007</v>
+        <v>268.830509782178</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1459.710229057665</v>
+        <v>1393.015874768146</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.477011451001</v>
+        <v>1393.015874768146</v>
       </c>
       <c r="D14" t="n">
-        <v>1056.832157813863</v>
+        <v>1079.371021131008</v>
       </c>
       <c r="E14" t="n">
-        <v>726.0449080766008</v>
+        <v>748.5837713937465</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527724</v>
+        <v>403.4856080699183</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2933.57840322311</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2933.57840322311</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2663.267869072823</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2364.065109187304</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2046.408779266554</v>
       </c>
       <c r="Y14" t="n">
-        <v>1788.408699622868</v>
+        <v>1721.714345333349</v>
       </c>
     </row>
     <row r="15">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>508.2674000845002</v>
+        <v>401.9661753553333</v>
       </c>
       <c r="C16" t="n">
-        <v>409.8585572966833</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="D16" t="n">
-        <v>326.0217193453919</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="E16" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1418.077172228532</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1254.15439554296</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245445</v>
+        <v>1040.511878931055</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915626</v>
+        <v>1040.511878931055</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689339</v>
+        <v>828.9777520084265</v>
       </c>
       <c r="X16" t="n">
-        <v>530.3256286689339</v>
+        <v>666.6937049376035</v>
       </c>
       <c r="Y16" t="n">
-        <v>508.2674000845002</v>
+        <v>515.3779189004407</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975446</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099321</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099307</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924162</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5768,7 +5768,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5777,22 +5777,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5826,7 +5826,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960412</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343052</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655144</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072225</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838011</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,43 +6230,43 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388517</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6470,16 +6470,16 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.935962441339</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878062</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879675</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,10 +6655,10 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286446</v>
       </c>
       <c r="X31" t="n">
         <v>722.768815498816</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463661</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057086</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835532</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230569</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741586</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786166</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423628</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043027</v>
+        <v>2690.011461406517</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901619</v>
+        <v>3038.198953538039</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042568</v>
+        <v>3303.341514273835</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210286</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210286</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965117</v>
+        <v>365.6713676929732</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918657</v>
+        <v>309.3853606404874</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237451</v>
+        <v>267.6713584245272</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123124</v>
+        <v>226.0316571652547</v>
       </c>
       <c r="F34" t="n">
-        <v>204.14288975465</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431897</v>
+        <v>86.73045008374226</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076157</v>
+        <v>149.4335135798903</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507034</v>
+        <v>337.0682132920838</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245032</v>
+        <v>612.8479737408662</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898376</v>
+        <v>799.1395520791302</v>
       </c>
       <c r="N34" t="n">
-        <v>895.5376270481172</v>
+        <v>1093.981306685322</v>
       </c>
       <c r="O34" t="n">
-        <v>1163.515486816896</v>
+        <v>1256.68607372703</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1376.562239503609</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250211</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395501</v>
+        <v>835.7257283273703</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000923</v>
+        <v>666.314437140073</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124402</v>
+        <v>546.1532258045811</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584483</v>
+        <v>436.9602755027495</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7017,22 +7017,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,46 +7099,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,22 +7202,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,46 +7336,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960418</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343059</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879436</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296516</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390484</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128482</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M46" t="n">
-        <v>593.6560140511123</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N46" t="n">
-        <v>776.8456480823215</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O46" t="n">
-        <v>939.5504151240295</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P46" t="n">
-        <v>1059.426580900608</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>276.2476446788123</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321637</v>
+        <v>203.9305743932526</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>315.5803501311871</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837483</v>
+        <v>574.4602701392428</v>
       </c>
       <c r="N3" t="n">
-        <v>629.067855288603</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,22 +8216,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>382.3703222692411</v>
       </c>
       <c r="L5" t="n">
-        <v>544.6970753003282</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999441</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.067855288603</v>
+        <v>485.8810686938601</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431202</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8459,7 +8459,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>663.8430986641874</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8541,13 +8541,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>673.3036524843452</v>
       </c>
       <c r="O9" t="n">
-        <v>270.9005442600802</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>376.8285690715891</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.5494662449327</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>199.6102425680203</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118432</v>
+        <v>447.5171231095477</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10665,25 +10665,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10911,7 +10911,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>373.8515870339854</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>133.4773254204123</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>101.0644071723066</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.126558819191516</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>54.22103038035658</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>229.8245486567686</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>73.30318897223444</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>103.4243627734452</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.9649818782018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1064208.705147438</v>
+        <v>1062704.836113038</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1064208.705147438</v>
+        <v>1062704.836113038</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>956931.9961374265</v>
+        <v>956931.9961374266</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>252465.0493306996</v>
       </c>
       <c r="C2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306996</v>
       </c>
       <c r="D2" t="n">
         <v>252465.0493306995</v>
@@ -26326,34 +26326,34 @@
         <v>223102.6327941606</v>
       </c>
       <c r="G2" t="n">
-        <v>252465.049330699</v>
+        <v>252465.0493306995</v>
       </c>
       <c r="H2" t="n">
-        <v>252465.049330699</v>
+        <v>252465.0493306995</v>
       </c>
       <c r="I2" t="n">
-        <v>252465.049330699</v>
+        <v>252465.0493306992</v>
       </c>
       <c r="J2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306994</v>
       </c>
       <c r="K2" t="n">
         <v>252465.0493306995</v>
       </c>
       <c r="L2" t="n">
-        <v>252465.0493306996</v>
+        <v>252465.0493306993</v>
       </c>
       <c r="M2" t="n">
-        <v>252465.0493306991</v>
+        <v>252465.0493306992</v>
       </c>
       <c r="N2" t="n">
+        <v>252465.0493306992</v>
+      </c>
+      <c r="O2" t="n">
         <v>252465.049330699</v>
       </c>
-      <c r="O2" t="n">
-        <v>252465.0493306995</v>
-      </c>
       <c r="P2" t="n">
-        <v>252465.0493306991</v>
+        <v>252465.0493306992</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062215</v>
+        <v>22558.42953401326</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945023</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728562</v>
+        <v>62456.24177539661</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427713</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489513</v>
+        <v>226762.9162907734</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489513</v>
+        <v>226762.9162907734</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="F4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="H4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="O4" t="n">
         <v>186364.8769761035</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>186364.8769761036</v>
-      </c>
-      <c r="P4" t="n">
-        <v>186364.8769761035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,25 +26485,25 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-217978.8111501211</v>
+        <v>-213326.5915289464</v>
       </c>
       <c r="C6" t="n">
-        <v>-35773.86285826555</v>
+        <v>-39467.93449489105</v>
       </c>
       <c r="D6" t="n">
-        <v>-43518.44356188606</v>
+        <v>-51254.73278527716</v>
       </c>
       <c r="E6" t="n">
-        <v>-80811.90886424575</v>
+        <v>-81021.64041093543</v>
       </c>
       <c r="F6" t="n">
-        <v>31310.65260979874</v>
+        <v>31100.92106310909</v>
       </c>
       <c r="G6" t="n">
-        <v>-39494.92249760611</v>
+        <v>-39494.92249760573</v>
       </c>
       <c r="H6" t="n">
-        <v>7930.403039075842</v>
+        <v>7930.403039076344</v>
       </c>
       <c r="I6" t="n">
-        <v>7930.403039075783</v>
+        <v>7930.403039075987</v>
       </c>
       <c r="J6" t="n">
-        <v>-205111.514558209</v>
+        <v>-198595.2294036364</v>
       </c>
       <c r="K6" t="n">
-        <v>1690.634636293333</v>
+        <v>1690.634636293304</v>
       </c>
       <c r="L6" t="n">
-        <v>-53491.95429832774</v>
+        <v>-57540.79150880022</v>
       </c>
       <c r="M6" t="n">
-        <v>-34270.42642054706</v>
+        <v>-35322.12143173511</v>
       </c>
       <c r="N6" t="n">
-        <v>7930.40303907582</v>
+        <v>7930.403039075958</v>
       </c>
       <c r="O6" t="n">
-        <v>-19837.29100369508</v>
+        <v>-19837.2910036954</v>
       </c>
       <c r="P6" t="n">
-        <v>7930.403039075958</v>
+        <v>7930.403039075987</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,19 +26707,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095196</v>
+        <v>844.4391950293145</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660702</v>
+        <v>78.07030221924576</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551326</v>
+        <v>17.58004954287459</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346413</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773703</v>
+        <v>659.3622249971654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407345</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,16 +27385,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>207.2945646471756</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>197.6297681554907</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.6157057928181</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.963768703238202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27546,19 +27546,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>31.86293894899198</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>5.714327125367788</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>296.8672039970688</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>70.74518656362699</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758526</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>61.99025433061954</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27783,16 +27783,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>74.15013051819066</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27828,13 +27828,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>112.83644419851</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>61.69385230722895</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>115.7977060460501</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27913,7 +27913,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>174.5382987575629</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>195.7825077669051</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28746,22 +28746,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634529262</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.6129845773342</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>128.2979821082783</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901135</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>30.27223765901277</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566199</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>81.10808140893727</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.8683420224764</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>94.97643844045021</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,37 +30180,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155852</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30408,13 +30408,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,28 +30876,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>35.71049010668788</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>35.71049010668843</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>133.1892414995749</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344364</v>
+        <v>54.20552279552539</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>225.9834147978538</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344364</v>
+        <v>482.0731480899309</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344364</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,22 +34936,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>239.3119190900037</v>
       </c>
       <c r="L5" t="n">
-        <v>391.4489055698365</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200682495</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344364</v>
+        <v>400.5089558396934</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35179,7 +35179,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>514.1180470664602</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="O9" t="n">
-        <v>178.2129853711913</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.5613130890187</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094883</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36282,7 +36282,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565492</v>
+        <v>171.4214974565488</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257368</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529554</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101028</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656005</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>107.2231205187084</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974416</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176209</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066588</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>267.8207684199964</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273778</v>
+        <v>75.16693519537648</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576765</v>
+        <v>362.1450102553811</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055068</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>189.5299997092863</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>216.0634745784084</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302979</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724881</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37704,13 +37704,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565499</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>286.7682222146707</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38193,7 +38193,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.16725411684092</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
